--- a/data/InputData_Scheduler.xlsx
+++ b/data/InputData_Scheduler.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Workers" sheetId="8" r:id="rId2"/>
-    <sheet name="Resources" sheetId="9" r:id="rId3"/>
-    <sheet name="Zones" sheetId="4" r:id="rId4"/>
+    <sheet name="Parameters" sheetId="11" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId2"/>
+    <sheet name="Workers" sheetId="8" r:id="rId3"/>
+    <sheet name="Resources" sheetId="9" r:id="rId4"/>
     <sheet name="Layout" sheetId="10" r:id="rId5"/>
-    <sheet name="ZonesDraw" sheetId="3" r:id="rId6"/>
-    <sheet name="Tasks (2)" sheetId="6" r:id="rId7"/>
+    <sheet name="ShopFloor_View" sheetId="3" r:id="rId6"/>
+    <sheet name="Options" sheetId="12" r:id="rId7"/>
+    <sheet name="Zones" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,40 +26,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This column is not taken into account;  The code assigns a number as it reads every zone and checks if ther is repetitions. </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Auteur</author>
@@ -361,11 +328,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column is not taken into account;  The code assigns a number as it reads every zone and checks if ther is repetitions. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="208">
-  <si>
-    <t>ID_Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="231">
   <si>
     <t>Ref</t>
   </si>
@@ -373,15 +371,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Duration (sec)</t>
-  </si>
-  <si>
-    <t>Worker_ID</t>
-  </si>
-  <si>
-    <t>Predecesors</t>
-  </si>
-  <si>
     <t>Zone(x)</t>
   </si>
   <si>
@@ -412,15 +401,6 @@
     <t>Element3</t>
   </si>
   <si>
-    <t xml:space="preserve">Wroker_aura </t>
-  </si>
-  <si>
-    <t>ResourceTest</t>
-  </si>
-  <si>
-    <t>PredecesorTest</t>
-  </si>
-  <si>
     <t>Zone ID</t>
   </si>
   <si>
@@ -736,9 +716,6 @@
     <t>7;6;5</t>
   </si>
   <si>
-    <t>29;29</t>
-  </si>
-  <si>
     <t>3;5;6</t>
   </si>
   <si>
@@ -934,16 +911,7 @@
     <t>2;3</t>
   </si>
   <si>
-    <t>3;3;5</t>
-  </si>
-  <si>
-    <t>4;2;4</t>
-  </si>
-  <si>
     <t>1;2;0</t>
-  </si>
-  <si>
-    <t>3;3;0</t>
   </si>
   <si>
     <t>4;0;5</t>
@@ -1022,14 +990,113 @@
   <si>
     <t>Utilization Rate</t>
   </si>
+  <si>
+    <t>Output File</t>
+  </si>
+  <si>
+    <t>OutputData_Scheduler.xlsx</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Accesibility Method</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>RandomWalk</t>
+  </si>
+  <si>
+    <t>A_Star</t>
+  </si>
+  <si>
+    <t>Bidirectional_A_Star</t>
+  </si>
+  <si>
+    <t>Priority Rule</t>
+  </si>
+  <si>
+    <t>WorkerSelectorRule</t>
+  </si>
+  <si>
+    <t>ResourceSelectorRule</t>
+  </si>
+  <si>
+    <t>SPT</t>
+  </si>
+  <si>
+    <t>LPT</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>GRPW</t>
+  </si>
+  <si>
+    <t>GRWC</t>
+  </si>
+  <si>
+    <t>GCRWC</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>AnyInList</t>
+  </si>
+  <si>
+    <t>LeastWorkload</t>
+  </si>
+  <si>
+    <t>Resource Selector Rule</t>
+  </si>
+  <si>
+    <t>Worker Selector Rule</t>
+  </si>
+  <si>
+    <t>Accessibility Method</t>
+  </si>
+  <si>
+    <t>Time Limit (Seconds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker_aura </t>
+  </si>
+  <si>
+    <t>ParallelScheduleScheme_Method</t>
+  </si>
+  <si>
+    <t>DFS_ft_EA_Method</t>
+  </si>
+  <si>
+    <t>TreeNodeSearch_Method</t>
+  </si>
+  <si>
+    <t>3;5</t>
+  </si>
+  <si>
+    <t>3;0</t>
+  </si>
+  <si>
+    <t>4;2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1197,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1424,12 +1491,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1454,17 +1530,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1533,6 +1601,16 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2486,7 +2564,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2631,7 +2708,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2914,7 +2990,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3152,7 +3227,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3270,7 +3344,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4922,2066 +4995,2181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!$C$2:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="57"/>
-    <col min="3" max="3" width="16.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="49" customWidth="1"/>
-    <col min="8" max="13" width="9.140625" style="49"/>
-    <col min="14" max="14" width="12.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="1" width="9.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="49"/>
+    <col min="3" max="3" width="16.28515625" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="41" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="41"/>
+    <col min="14" max="14" width="12.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:254" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
-      <c r="BG1" s="52"/>
-      <c r="BH1" s="52"/>
-      <c r="BI1" s="52"/>
-      <c r="BJ1" s="52"/>
-      <c r="BK1" s="52"/>
-      <c r="BL1" s="52"/>
-      <c r="BM1" s="52"/>
-      <c r="BN1" s="52"/>
-      <c r="BO1" s="52"/>
-      <c r="BP1" s="52"/>
-      <c r="BQ1" s="52"/>
-      <c r="BR1" s="52"/>
-      <c r="BS1" s="52"/>
-      <c r="BT1" s="52"/>
-      <c r="BU1" s="52"/>
-      <c r="BV1" s="52"/>
-      <c r="BW1" s="52"/>
-      <c r="BX1" s="52"/>
-      <c r="BY1" s="52"/>
-      <c r="BZ1" s="52"/>
-      <c r="CA1" s="52"/>
-      <c r="CB1" s="52"/>
-      <c r="CC1" s="52"/>
-      <c r="CD1" s="52"/>
-      <c r="CE1" s="52"/>
-      <c r="CF1" s="52"/>
-      <c r="CG1" s="52"/>
-      <c r="CH1" s="52"/>
-      <c r="CI1" s="52"/>
-      <c r="CJ1" s="52"/>
-      <c r="CK1" s="52"/>
-      <c r="CL1" s="52"/>
-      <c r="CM1" s="52"/>
-      <c r="CN1" s="52"/>
-      <c r="CO1" s="52"/>
-      <c r="CP1" s="52"/>
-      <c r="CQ1" s="52"/>
-      <c r="CR1" s="52"/>
-      <c r="CS1" s="52"/>
-      <c r="CT1" s="52"/>
-      <c r="CU1" s="52"/>
-      <c r="CV1" s="52"/>
-      <c r="CW1" s="52"/>
-      <c r="CX1" s="52"/>
-      <c r="CY1" s="52"/>
-      <c r="CZ1" s="52"/>
-      <c r="DA1" s="52"/>
-      <c r="DB1" s="52"/>
-      <c r="DC1" s="52"/>
-      <c r="DD1" s="52"/>
-      <c r="DE1" s="52"/>
-      <c r="DF1" s="52"/>
-      <c r="DG1" s="52"/>
-      <c r="DH1" s="52"/>
-      <c r="DI1" s="52"/>
-      <c r="DJ1" s="52"/>
-      <c r="DK1" s="52"/>
-      <c r="DL1" s="52"/>
-      <c r="DM1" s="52"/>
-      <c r="DN1" s="52"/>
-      <c r="DO1" s="52"/>
-      <c r="DP1" s="52"/>
-      <c r="DQ1" s="52"/>
-      <c r="DR1" s="52"/>
-      <c r="DS1" s="52"/>
-      <c r="DT1" s="52"/>
-      <c r="DU1" s="52"/>
-      <c r="DV1" s="52"/>
-      <c r="DW1" s="52"/>
-      <c r="DX1" s="52"/>
-      <c r="DY1" s="52"/>
-      <c r="DZ1" s="52"/>
-      <c r="EA1" s="52"/>
-      <c r="EB1" s="52"/>
-      <c r="EC1" s="52"/>
-      <c r="ED1" s="52"/>
-      <c r="EE1" s="52"/>
-      <c r="EF1" s="52"/>
-      <c r="EG1" s="52"/>
-      <c r="EH1" s="52"/>
-      <c r="EI1" s="52"/>
-      <c r="EJ1" s="52"/>
-      <c r="EK1" s="52"/>
-      <c r="EL1" s="52"/>
-      <c r="EM1" s="52"/>
-      <c r="EN1" s="52"/>
-      <c r="EO1" s="52"/>
-      <c r="EP1" s="52"/>
-      <c r="EQ1" s="52"/>
-      <c r="ER1" s="52"/>
-      <c r="ES1" s="52"/>
-      <c r="ET1" s="52"/>
-      <c r="EU1" s="52"/>
-      <c r="EV1" s="52"/>
-      <c r="EW1" s="52"/>
-      <c r="EX1" s="52"/>
-      <c r="EY1" s="52"/>
-      <c r="EZ1" s="52"/>
-      <c r="FA1" s="52"/>
-      <c r="FB1" s="52"/>
-      <c r="FC1" s="52"/>
-      <c r="FD1" s="52"/>
-      <c r="FE1" s="52"/>
-      <c r="FF1" s="52"/>
-      <c r="FG1" s="52"/>
-      <c r="FH1" s="52"/>
-      <c r="FI1" s="52"/>
-      <c r="FJ1" s="52"/>
-      <c r="FK1" s="52"/>
-      <c r="FL1" s="52"/>
-      <c r="FM1" s="52"/>
-      <c r="FN1" s="52"/>
-      <c r="FO1" s="52"/>
-      <c r="FP1" s="52"/>
-      <c r="FQ1" s="52"/>
-      <c r="FR1" s="52"/>
-      <c r="FS1" s="52"/>
-      <c r="FT1" s="52"/>
-      <c r="FU1" s="52"/>
-      <c r="FV1" s="52"/>
-      <c r="FW1" s="52"/>
-      <c r="FX1" s="52"/>
-      <c r="FY1" s="52"/>
-      <c r="FZ1" s="52"/>
-      <c r="GA1" s="52"/>
-      <c r="GB1" s="52"/>
-      <c r="GC1" s="52"/>
-      <c r="GD1" s="52"/>
-      <c r="GE1" s="52"/>
-      <c r="GF1" s="52"/>
-      <c r="GG1" s="52"/>
-      <c r="GH1" s="52"/>
-      <c r="GI1" s="52"/>
-      <c r="GJ1" s="52"/>
-      <c r="GK1" s="52"/>
-      <c r="GL1" s="52"/>
-      <c r="GM1" s="52"/>
-      <c r="GN1" s="52"/>
-      <c r="GO1" s="52"/>
-      <c r="GP1" s="52"/>
-      <c r="GQ1" s="52"/>
-      <c r="GR1" s="52"/>
-      <c r="GS1" s="52"/>
-      <c r="GT1" s="52"/>
-      <c r="GU1" s="52"/>
-      <c r="GV1" s="52"/>
-      <c r="GW1" s="52"/>
-      <c r="GX1" s="52"/>
-      <c r="GY1" s="52"/>
-      <c r="GZ1" s="52"/>
-      <c r="HA1" s="52"/>
-      <c r="HB1" s="52"/>
-      <c r="HC1" s="52"/>
-      <c r="HD1" s="52"/>
-      <c r="HE1" s="52"/>
-      <c r="HF1" s="52"/>
-      <c r="HG1" s="52"/>
-      <c r="HH1" s="52"/>
-      <c r="HI1" s="52"/>
-      <c r="HJ1" s="52"/>
-      <c r="HK1" s="52"/>
-      <c r="HL1" s="52"/>
-      <c r="HM1" s="52"/>
-      <c r="HN1" s="52"/>
-      <c r="HO1" s="52"/>
-      <c r="HP1" s="52"/>
-      <c r="HQ1" s="52"/>
-      <c r="HR1" s="52"/>
-      <c r="HS1" s="52"/>
-      <c r="HT1" s="52"/>
-      <c r="HU1" s="52"/>
-      <c r="HV1" s="52"/>
-      <c r="HW1" s="52"/>
-      <c r="HX1" s="52"/>
-      <c r="HY1" s="52"/>
-      <c r="HZ1" s="52"/>
-      <c r="IA1" s="52"/>
-      <c r="IB1" s="52"/>
-      <c r="IC1" s="52"/>
-      <c r="ID1" s="52"/>
-      <c r="IE1" s="52"/>
-      <c r="IF1" s="52"/>
-      <c r="IG1" s="52"/>
-      <c r="IH1" s="52"/>
-      <c r="II1" s="52"/>
-      <c r="IJ1" s="52"/>
-      <c r="IK1" s="52"/>
-      <c r="IL1" s="52"/>
-      <c r="IM1" s="52"/>
-      <c r="IN1" s="52"/>
-      <c r="IO1" s="52"/>
-      <c r="IP1" s="52"/>
-      <c r="IQ1" s="52"/>
-      <c r="IR1" s="52"/>
-      <c r="IS1" s="52"/>
-      <c r="IT1" s="52"/>
+    <row r="1" spans="1:254" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="44"/>
+      <c r="BU1" s="44"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="44"/>
+      <c r="CK1" s="44"/>
+      <c r="CL1" s="44"/>
+      <c r="CM1" s="44"/>
+      <c r="CN1" s="44"/>
+      <c r="CO1" s="44"/>
+      <c r="CP1" s="44"/>
+      <c r="CQ1" s="44"/>
+      <c r="CR1" s="44"/>
+      <c r="CS1" s="44"/>
+      <c r="CT1" s="44"/>
+      <c r="CU1" s="44"/>
+      <c r="CV1" s="44"/>
+      <c r="CW1" s="44"/>
+      <c r="CX1" s="44"/>
+      <c r="CY1" s="44"/>
+      <c r="CZ1" s="44"/>
+      <c r="DA1" s="44"/>
+      <c r="DB1" s="44"/>
+      <c r="DC1" s="44"/>
+      <c r="DD1" s="44"/>
+      <c r="DE1" s="44"/>
+      <c r="DF1" s="44"/>
+      <c r="DG1" s="44"/>
+      <c r="DH1" s="44"/>
+      <c r="DI1" s="44"/>
+      <c r="DJ1" s="44"/>
+      <c r="DK1" s="44"/>
+      <c r="DL1" s="44"/>
+      <c r="DM1" s="44"/>
+      <c r="DN1" s="44"/>
+      <c r="DO1" s="44"/>
+      <c r="DP1" s="44"/>
+      <c r="DQ1" s="44"/>
+      <c r="DR1" s="44"/>
+      <c r="DS1" s="44"/>
+      <c r="DT1" s="44"/>
+      <c r="DU1" s="44"/>
+      <c r="DV1" s="44"/>
+      <c r="DW1" s="44"/>
+      <c r="DX1" s="44"/>
+      <c r="DY1" s="44"/>
+      <c r="DZ1" s="44"/>
+      <c r="EA1" s="44"/>
+      <c r="EB1" s="44"/>
+      <c r="EC1" s="44"/>
+      <c r="ED1" s="44"/>
+      <c r="EE1" s="44"/>
+      <c r="EF1" s="44"/>
+      <c r="EG1" s="44"/>
+      <c r="EH1" s="44"/>
+      <c r="EI1" s="44"/>
+      <c r="EJ1" s="44"/>
+      <c r="EK1" s="44"/>
+      <c r="EL1" s="44"/>
+      <c r="EM1" s="44"/>
+      <c r="EN1" s="44"/>
+      <c r="EO1" s="44"/>
+      <c r="EP1" s="44"/>
+      <c r="EQ1" s="44"/>
+      <c r="ER1" s="44"/>
+      <c r="ES1" s="44"/>
+      <c r="ET1" s="44"/>
+      <c r="EU1" s="44"/>
+      <c r="EV1" s="44"/>
+      <c r="EW1" s="44"/>
+      <c r="EX1" s="44"/>
+      <c r="EY1" s="44"/>
+      <c r="EZ1" s="44"/>
+      <c r="FA1" s="44"/>
+      <c r="FB1" s="44"/>
+      <c r="FC1" s="44"/>
+      <c r="FD1" s="44"/>
+      <c r="FE1" s="44"/>
+      <c r="FF1" s="44"/>
+      <c r="FG1" s="44"/>
+      <c r="FH1" s="44"/>
+      <c r="FI1" s="44"/>
+      <c r="FJ1" s="44"/>
+      <c r="FK1" s="44"/>
+      <c r="FL1" s="44"/>
+      <c r="FM1" s="44"/>
+      <c r="FN1" s="44"/>
+      <c r="FO1" s="44"/>
+      <c r="FP1" s="44"/>
+      <c r="FQ1" s="44"/>
+      <c r="FR1" s="44"/>
+      <c r="FS1" s="44"/>
+      <c r="FT1" s="44"/>
+      <c r="FU1" s="44"/>
+      <c r="FV1" s="44"/>
+      <c r="FW1" s="44"/>
+      <c r="FX1" s="44"/>
+      <c r="FY1" s="44"/>
+      <c r="FZ1" s="44"/>
+      <c r="GA1" s="44"/>
+      <c r="GB1" s="44"/>
+      <c r="GC1" s="44"/>
+      <c r="GD1" s="44"/>
+      <c r="GE1" s="44"/>
+      <c r="GF1" s="44"/>
+      <c r="GG1" s="44"/>
+      <c r="GH1" s="44"/>
+      <c r="GI1" s="44"/>
+      <c r="GJ1" s="44"/>
+      <c r="GK1" s="44"/>
+      <c r="GL1" s="44"/>
+      <c r="GM1" s="44"/>
+      <c r="GN1" s="44"/>
+      <c r="GO1" s="44"/>
+      <c r="GP1" s="44"/>
+      <c r="GQ1" s="44"/>
+      <c r="GR1" s="44"/>
+      <c r="GS1" s="44"/>
+      <c r="GT1" s="44"/>
+      <c r="GU1" s="44"/>
+      <c r="GV1" s="44"/>
+      <c r="GW1" s="44"/>
+      <c r="GX1" s="44"/>
+      <c r="GY1" s="44"/>
+      <c r="GZ1" s="44"/>
+      <c r="HA1" s="44"/>
+      <c r="HB1" s="44"/>
+      <c r="HC1" s="44"/>
+      <c r="HD1" s="44"/>
+      <c r="HE1" s="44"/>
+      <c r="HF1" s="44"/>
+      <c r="HG1" s="44"/>
+      <c r="HH1" s="44"/>
+      <c r="HI1" s="44"/>
+      <c r="HJ1" s="44"/>
+      <c r="HK1" s="44"/>
+      <c r="HL1" s="44"/>
+      <c r="HM1" s="44"/>
+      <c r="HN1" s="44"/>
+      <c r="HO1" s="44"/>
+      <c r="HP1" s="44"/>
+      <c r="HQ1" s="44"/>
+      <c r="HR1" s="44"/>
+      <c r="HS1" s="44"/>
+      <c r="HT1" s="44"/>
+      <c r="HU1" s="44"/>
+      <c r="HV1" s="44"/>
+      <c r="HW1" s="44"/>
+      <c r="HX1" s="44"/>
+      <c r="HY1" s="44"/>
+      <c r="HZ1" s="44"/>
+      <c r="IA1" s="44"/>
+      <c r="IB1" s="44"/>
+      <c r="IC1" s="44"/>
+      <c r="ID1" s="44"/>
+      <c r="IE1" s="44"/>
+      <c r="IF1" s="44"/>
+      <c r="IG1" s="44"/>
+      <c r="IH1" s="44"/>
+      <c r="II1" s="44"/>
+      <c r="IJ1" s="44"/>
+      <c r="IK1" s="44"/>
+      <c r="IL1" s="44"/>
+      <c r="IM1" s="44"/>
+      <c r="IN1" s="44"/>
+      <c r="IO1" s="44"/>
+      <c r="IP1" s="44"/>
+      <c r="IQ1" s="44"/>
+      <c r="IR1" s="44"/>
+      <c r="IS1" s="44"/>
+      <c r="IT1" s="44"/>
     </row>
     <row r="2" spans="1:254" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="61" t="s">
+      <c r="A2" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="61" t="s">
+      <c r="I2" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="61" t="s">
+      <c r="M2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>19</v>
+      <c r="S2" s="46" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
-        <v>1</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="49">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="50">
         <v>81</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="50">
         <v>3</v>
       </c>
-      <c r="F3" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="H3" s="49">
+      <c r="F3" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!B"&amp;S3+2))</f>
         <v>12</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!C"&amp;S3+2))</f>
         <v>21</v>
       </c>
-      <c r="J3" s="49">
+      <c r="J3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!D"&amp;S3+2))</f>
         <v>1</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!E"&amp;S3+2))</f>
         <v>1</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!F"&amp;S3+2))</f>
         <v>1</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="41">
         <f ca="1">IF(ISBLANK(S3),"",INDIRECT("Zones!G"&amp;S3+2))</f>
         <v>1</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="47">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="49">
+      <c r="B4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="41">
         <v>221</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="50">
         <v>3</v>
       </c>
-      <c r="F4" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="49">
+      <c r="F4" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="41">
         <f t="shared" ref="H4:H37" ca="1" si="0">IF(ISBLANK(S4),"",INDIRECT("Zones!B"&amp;S4+2))</f>
         <v>14</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="41">
         <f t="shared" ref="I4:I37" ca="1" si="1">IF(ISBLANK(S4),"",INDIRECT("Zones!C"&amp;S4+2))</f>
         <v>31</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="41">
         <f t="shared" ref="J4:J37" ca="1" si="2">IF(ISBLANK(S4),"",INDIRECT("Zones!D"&amp;S4+2))</f>
         <v>0</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="41">
         <f t="shared" ref="K4:K37" ca="1" si="3">IF(ISBLANK(S4),"",INDIRECT("Zones!E"&amp;S4+2))</f>
         <v>1</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="41">
         <f t="shared" ref="L4:L37" ca="1" si="4">IF(ISBLANK(S4),"",INDIRECT("Zones!F"&amp;S4+2))</f>
         <v>1</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="41">
         <f t="shared" ref="M4:M37" ca="1" si="5">IF(ISBLANK(S4),"",INDIRECT("Zones!G"&amp;S4+2))</f>
         <v>1</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="49">
+      <c r="B5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="41">
         <v>239</v>
       </c>
-      <c r="E5" s="58">
-        <v>1</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="49">
+      <c r="E5" s="50">
+        <v>1</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="J5" s="49">
+      <c r="J5" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="47">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="49">
+      <c r="B6" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="41">
         <v>162</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="50">
         <v>3</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H6" s="49">
+      <c r="F6" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S6" s="55">
+      <c r="S6" s="47">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="49">
+      <c r="B7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="41">
         <v>268</v>
       </c>
-      <c r="E7" s="58">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="49">
+      <c r="E7" s="50">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S7" s="55">
+      <c r="S7" s="47">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="49">
+      <c r="B8" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="41">
         <v>141</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="50">
         <v>4</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="49">
+      <c r="F8" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="41">
         <v>24</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="49">
+      <c r="B9" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="41">
         <v>293</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="50">
         <v>5</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="49">
+      <c r="F9" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="41">
         <v>8</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="49">
+      <c r="B10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="41">
         <v>95</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="50">
         <v>2</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="49">
+      <c r="F10" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="41">
         <v>6</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
+      <c r="A11" s="41">
         <v>9</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="49">
+      <c r="B11" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="41">
         <v>166</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="50">
         <v>5</v>
       </c>
-      <c r="F11" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="49">
+      <c r="F11" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S11" s="55">
+      <c r="S11" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+      <c r="A12" s="41">
         <v>10</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="49">
+      <c r="B12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="41">
         <v>81</v>
       </c>
-      <c r="E12" s="58">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="49">
+      <c r="E12" s="50">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S12" s="55">
+      <c r="S12" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="41">
         <v>11</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="49">
+      <c r="B13" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="41">
         <v>157</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="50">
         <v>4</v>
       </c>
-      <c r="F13" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="49">
+      <c r="F13" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>21</v>
       </c>
-      <c r="J13" s="49">
+      <c r="J13" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="47">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="41">
         <v>12</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="49">
+      <c r="B14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="41">
         <v>288</v>
       </c>
-      <c r="E14" s="58">
+      <c r="E14" s="50">
         <v>5</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="F14" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="41">
         <v>10</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="41">
         <v>13</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="49">
+      <c r="B15" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="41">
         <v>73</v>
       </c>
-      <c r="E15" s="58">
-        <v>1</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="49">
+      <c r="E15" s="50">
+        <v>1</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:254" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="41">
         <v>14</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="49">
+      <c r="B16" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="41">
         <v>104</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="50">
         <v>3</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" s="49">
+      <c r="F16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="J16" s="49">
+      <c r="J16" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="49">
+      <c r="K16" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="49">
+      <c r="L16" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="41">
         <v>15</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="49">
+      <c r="B17" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="41">
         <v>63</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="50">
         <v>4</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" s="49">
+      <c r="F17" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K17" s="49">
+      <c r="K17" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L17" s="49">
+      <c r="L17" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="49">
+      <c r="B18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="41">
         <v>276</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="50">
         <v>4</v>
       </c>
-      <c r="F18" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="49">
-        <v>1</v>
-      </c>
-      <c r="H18" s="49">
+      <c r="F18" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="41">
+        <v>1</v>
+      </c>
+      <c r="H18" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K18" s="49">
+      <c r="K18" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="49">
+      <c r="L18" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M18" s="49">
+      <c r="M18" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S18" s="55">
+      <c r="S18" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+      <c r="A19" s="41">
         <v>17</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="49">
+      <c r="B19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="41">
         <v>185</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="50">
         <v>2</v>
       </c>
-      <c r="F19" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="49">
+      <c r="F19" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="41">
+        <v>29</v>
+      </c>
+      <c r="H19" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S19" s="55">
+      <c r="S19" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="41">
         <v>18</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="49">
+      <c r="B20" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="41">
         <v>273</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="50">
         <v>2</v>
       </c>
-      <c r="F20" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="49">
+      <c r="F20" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S20" s="55">
+      <c r="S20" s="47">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="41">
         <v>19</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="49">
+      <c r="B21" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="41">
         <v>165</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="50">
         <v>2</v>
       </c>
-      <c r="F21" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="H21" s="49">
+      <c r="F21" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J21" s="49">
+      <c r="J21" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L21" s="49">
+      <c r="L21" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S21" s="55">
+      <c r="S21" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="49">
+      <c r="A22" s="41">
         <v>20</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="49">
+      <c r="B22" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="41">
         <v>154</v>
       </c>
-      <c r="E22" s="58">
-        <v>1</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" s="49">
+      <c r="E22" s="50">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="J22" s="49">
+      <c r="J22" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K22" s="49">
+      <c r="K22" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="49">
+      <c r="L22" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S22" s="55">
+      <c r="S22" s="47">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="41">
         <v>21</v>
       </c>
-      <c r="B23" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="49">
+      <c r="B23" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="41">
         <v>123</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="50">
         <v>2</v>
       </c>
-      <c r="F23" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="49">
+      <c r="F23" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J23" s="49">
+      <c r="J23" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="49">
+      <c r="K23" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L23" s="49">
+      <c r="L23" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S23" s="55">
+      <c r="S23" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="41">
         <v>22</v>
       </c>
-      <c r="B24" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="49">
+      <c r="B24" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="41">
         <v>183</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="50">
         <v>3</v>
       </c>
-      <c r="F24" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="49">
+      <c r="F24" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="41">
         <v>12</v>
       </c>
-      <c r="H24" s="49">
+      <c r="H24" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>18</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S24" s="55">
+      <c r="S24" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="41">
         <v>23</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="49">
+      <c r="B25" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="41">
         <v>107</v>
       </c>
-      <c r="E25" s="58">
-        <v>1</v>
-      </c>
-      <c r="F25" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="49">
+      <c r="E25" s="50">
+        <v>1</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>40</v>
       </c>
-      <c r="J25" s="49">
+      <c r="J25" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="K25" s="49">
+      <c r="K25" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="L25" s="49">
+      <c r="L25" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="S25" s="55">
+      <c r="S25" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="41">
         <v>24</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="49">
+      <c r="B26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="41">
         <v>101</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="50">
         <v>4</v>
       </c>
-      <c r="F26" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="49">
+      <c r="F26" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J26" s="49">
+      <c r="J26" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S26" s="55">
+      <c r="S26" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="B27" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="41">
         <v>165</v>
       </c>
-      <c r="E27" s="58">
-        <v>1</v>
-      </c>
-      <c r="F27" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="G27" s="49">
+      <c r="E27" s="50">
+        <v>1</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="41">
         <v>8</v>
       </c>
-      <c r="H27" s="49">
+      <c r="H27" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="J27" s="49">
+      <c r="J27" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="49">
+      <c r="K27" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L27" s="49">
+      <c r="L27" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M27" s="49">
+      <c r="M27" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S27" s="55">
+      <c r="S27" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="49">
+      <c r="A28" s="41">
         <v>26</v>
       </c>
-      <c r="B28" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="49">
+      <c r="B28" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="41">
         <v>129</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="50">
         <v>3</v>
       </c>
-      <c r="F28" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G28" s="49">
+      <c r="F28" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="41">
         <v>22</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S28" s="55">
+      <c r="S28" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="41">
         <v>27</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="49">
+      <c r="B29" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="41">
         <v>288</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="50">
         <v>5</v>
       </c>
-      <c r="F29" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H29" s="49">
+      <c r="F29" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J29" s="49">
+      <c r="J29" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K29" s="49">
+      <c r="K29" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L29" s="49">
+      <c r="L29" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S29" s="55">
+      <c r="S29" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="49">
+      <c r="A30" s="41">
         <v>28</v>
       </c>
-      <c r="B30" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="49">
+      <c r="B30" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="41">
         <v>60</v>
       </c>
-      <c r="E30" s="58">
+      <c r="E30" s="50">
         <v>5</v>
       </c>
-      <c r="F30" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="49">
+      <c r="F30" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J30" s="49">
+      <c r="J30" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="K30" s="49">
+      <c r="K30" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L30" s="49">
+      <c r="L30" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S30" s="55">
+      <c r="S30" s="47">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="41">
         <v>29</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="49">
+      <c r="B31" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="41">
         <v>213</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="50">
         <v>5</v>
       </c>
-      <c r="F31" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="H31" s="49">
+      <c r="F31" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S31" s="55">
+      <c r="S31" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="49">
+      <c r="A32" s="41">
         <v>30</v>
       </c>
-      <c r="B32" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="49">
+      <c r="B32" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="41">
         <v>122</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="50">
         <v>2</v>
       </c>
-      <c r="F32" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="49">
+      <c r="F32" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J32" s="49">
+      <c r="J32" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K32" s="49">
+      <c r="K32" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L32" s="49">
+      <c r="L32" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S32" s="55">
+      <c r="S32" s="47">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="49">
+      <c r="A33" s="41">
         <v>31</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" s="49">
+      <c r="B33" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="41">
         <v>173</v>
       </c>
-      <c r="E33" s="58">
+      <c r="E33" s="50">
         <v>3</v>
       </c>
-      <c r="F33" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="G33" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="49">
+      <c r="F33" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>17</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="J33" s="49">
+      <c r="J33" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="L33" s="49">
+      <c r="L33" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S33" s="55">
+      <c r="S33" s="47">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
+      <c r="A34" s="41">
         <v>32</v>
       </c>
-      <c r="B34" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="49">
+      <c r="B34" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="41">
         <v>291</v>
       </c>
-      <c r="E34" s="58">
-        <v>1</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="49">
+      <c r="E34" s="50">
+        <v>1</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>27</v>
       </c>
-      <c r="J34" s="49">
+      <c r="J34" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K34" s="49">
+      <c r="K34" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L34" s="49">
+      <c r="L34" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S34" s="55">
+      <c r="S34" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
+      <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="49">
+      <c r="B35" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="41">
         <v>270</v>
       </c>
-      <c r="E35" s="58">
+      <c r="E35" s="50">
         <v>4</v>
       </c>
-      <c r="F35" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="49">
+      <c r="F35" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H35" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>17</v>
       </c>
-      <c r="J35" s="49">
+      <c r="J35" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K35" s="49">
+      <c r="K35" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L35" s="49">
+      <c r="L35" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S35" s="55">
+      <c r="S35" s="47">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
+      <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="49">
+      <c r="B36" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="41">
         <v>289</v>
       </c>
-      <c r="E36" s="58">
-        <v>1</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="49">
+      <c r="E36" s="50">
+        <v>1</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="41">
         <v>19</v>
       </c>
-      <c r="H36" s="49">
+      <c r="H36" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>31</v>
       </c>
-      <c r="J36" s="49">
+      <c r="J36" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="K36" s="49">
+      <c r="K36" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
-      <c r="L36" s="49">
+      <c r="L36" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S36" s="55">
+      <c r="S36" s="47">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
+      <c r="A37" s="41">
         <v>35</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37" s="49">
+      <c r="B37" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="41">
         <v>286</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E37" s="50">
         <v>4</v>
       </c>
-      <c r="F37" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" s="49">
+      <c r="F37" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" s="41">
         <f t="shared" ca="1" si="0"/>
         <v>15</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="41">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="J37" s="49">
+      <c r="J37" s="41">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="K37" s="49">
+      <c r="K37" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="49">
+      <c r="L37" s="41">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-      <c r="M37" s="49">
+      <c r="M37" s="41">
         <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="S37" s="55">
+      <c r="S37" s="47">
         <v>16</v>
       </c>
     </row>
@@ -6994,141 +7182,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="25" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="15.5703125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25" style="41" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="41" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>197</v>
+      <c r="A1" s="42" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>207</v>
+      <c r="A2" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="49">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="41">
         <v>100</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="49">
+      <c r="B4" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="41">
         <v>50</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="41">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="B5" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="41">
         <v>100</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="41">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="41">
         <v>4</v>
       </c>
-      <c r="B6" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="49">
+      <c r="B6" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="41">
         <v>40</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="49">
+      <c r="B7" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="41">
         <v>45</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="41">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="41">
         <v>6</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="49">
+      <c r="B8" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="41">
         <v>434</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="41">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="49">
+      <c r="B9" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="41">
         <v>54</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="41">
         <v>44</v>
       </c>
     </row>
@@ -7139,390 +7327,390 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="49" customWidth="1"/>
-    <col min="2" max="3" width="10" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="12" style="41" customWidth="1"/>
+    <col min="2" max="3" width="10" style="41" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>198</v>
+      <c r="A1" s="42" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="41">
+        <v>3</v>
+      </c>
+      <c r="C3" s="41">
+        <v>0</v>
+      </c>
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="41">
+        <v>9</v>
+      </c>
+      <c r="C4" s="41">
+        <v>0</v>
+      </c>
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="41">
+        <v>7</v>
+      </c>
+      <c r="C5" s="41">
+        <v>0</v>
+      </c>
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="41">
+        <v>3</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="41">
+        <v>4</v>
+      </c>
+      <c r="C7" s="41">
+        <v>0</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="41">
+        <v>9</v>
+      </c>
+      <c r="C8" s="41">
+        <v>0</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B9" s="41">
+        <v>6</v>
+      </c>
+      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="B10" s="41">
+        <v>10</v>
+      </c>
+      <c r="C10" s="41">
+        <v>0</v>
+      </c>
+      <c r="D10" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="49">
-        <v>3</v>
-      </c>
-      <c r="C3" s="49">
-        <v>0</v>
-      </c>
-      <c r="D3" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="B11" s="41">
+        <v>1</v>
+      </c>
+      <c r="C11" s="41">
+        <v>0</v>
+      </c>
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="49">
-        <v>9</v>
-      </c>
-      <c r="C4" s="49">
-        <v>0</v>
-      </c>
-      <c r="D4" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="B12" s="41">
+        <v>10</v>
+      </c>
+      <c r="C12" s="41">
+        <v>0</v>
+      </c>
+      <c r="D12" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B13" s="41">
+        <v>6</v>
+      </c>
+      <c r="C13" s="41">
+        <v>0</v>
+      </c>
+      <c r="D13" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="41">
+        <v>4</v>
+      </c>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="41">
+        <v>5</v>
+      </c>
+      <c r="C15" s="41">
+        <v>100</v>
+      </c>
+      <c r="D15" s="41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="41">
+        <v>2</v>
+      </c>
+      <c r="C16" s="41">
+        <v>0</v>
+      </c>
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="41">
+        <v>8</v>
+      </c>
+      <c r="C17" s="41">
+        <v>0</v>
+      </c>
+      <c r="D17" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="41">
+        <v>6</v>
+      </c>
+      <c r="C18" s="41">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0</v>
+      </c>
+      <c r="C19" s="41">
+        <v>0</v>
+      </c>
+      <c r="D19" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="41">
+        <v>1</v>
+      </c>
+      <c r="C20" s="41">
+        <v>0</v>
+      </c>
+      <c r="D20" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0</v>
+      </c>
+      <c r="C21" s="41">
+        <v>0</v>
+      </c>
+      <c r="D21" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="41">
+        <v>8</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0</v>
+      </c>
+      <c r="D22" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="41">
+        <v>2</v>
+      </c>
+      <c r="C23" s="41">
+        <v>0</v>
+      </c>
+      <c r="D23" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="41">
         <v>7</v>
       </c>
-      <c r="C5" s="49">
-        <v>0</v>
-      </c>
-      <c r="D5" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="49">
-        <v>3</v>
-      </c>
-      <c r="C6" s="49">
-        <v>0</v>
-      </c>
-      <c r="D6" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="49">
-        <v>4</v>
-      </c>
-      <c r="C7" s="49">
-        <v>0</v>
-      </c>
-      <c r="D7" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="49">
-        <v>9</v>
-      </c>
-      <c r="C8" s="49">
-        <v>0</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="49">
-        <v>6</v>
-      </c>
-      <c r="C9" s="49">
-        <v>0</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="49">
-        <v>10</v>
-      </c>
-      <c r="C10" s="49">
-        <v>0</v>
-      </c>
-      <c r="D10" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="49">
-        <v>1</v>
-      </c>
-      <c r="C11" s="49">
-        <v>0</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="49">
-        <v>10</v>
-      </c>
-      <c r="C12" s="49">
-        <v>0</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="49">
-        <v>6</v>
-      </c>
-      <c r="C13" s="49">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="49">
-        <v>4</v>
-      </c>
-      <c r="C14" s="49">
-        <v>0</v>
-      </c>
-      <c r="D14" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="49">
+      <c r="C24" s="41">
+        <v>0</v>
+      </c>
+      <c r="D24" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="41">
+        <v>8</v>
+      </c>
+      <c r="C25" s="41">
+        <v>0</v>
+      </c>
+      <c r="D25" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="41">
         <v>5</v>
       </c>
-      <c r="C15" s="49">
-        <v>100</v>
-      </c>
-      <c r="D15" s="49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="49">
-        <v>2</v>
-      </c>
-      <c r="C16" s="49">
-        <v>0</v>
-      </c>
-      <c r="D16" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="49">
-        <v>8</v>
-      </c>
-      <c r="C17" s="49">
-        <v>0</v>
-      </c>
-      <c r="D17" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="49">
-        <v>6</v>
-      </c>
-      <c r="C18" s="49">
-        <v>0</v>
-      </c>
-      <c r="D18" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="C26" s="41">
+        <v>0</v>
+      </c>
+      <c r="D26" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="49">
-        <v>0</v>
-      </c>
-      <c r="C19" s="49">
-        <v>0</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="49">
-        <v>1</v>
-      </c>
-      <c r="C20" s="49">
-        <v>0</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="49">
-        <v>0</v>
-      </c>
-      <c r="C21" s="49">
-        <v>0</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="49">
-        <v>8</v>
-      </c>
-      <c r="C22" s="49">
-        <v>0</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="49">
-        <v>2</v>
-      </c>
-      <c r="C23" s="49">
-        <v>0</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="49">
-        <v>7</v>
-      </c>
-      <c r="C24" s="49">
-        <v>0</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="49">
-        <v>8</v>
-      </c>
-      <c r="C25" s="49">
-        <v>0</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="49">
-        <v>5</v>
-      </c>
-      <c r="C26" s="49">
-        <v>0</v>
-      </c>
-      <c r="D26" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="49">
-        <v>1</v>
-      </c>
-      <c r="C27" s="49">
-        <v>0</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="B27" s="41">
+        <v>1</v>
+      </c>
+      <c r="C27" s="41">
+        <v>0</v>
+      </c>
+      <c r="D27" s="41">
         <v>0</v>
       </c>
     </row>
@@ -7530,476 +7718,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="7" width="11.42578125" style="49"/>
-    <col min="8" max="8" width="11.42578125" style="51"/>
-    <col min="9" max="16384" width="11.42578125" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49">
-        <v>5</v>
-      </c>
-      <c r="C3" s="49">
-        <v>3</v>
-      </c>
-      <c r="D3" s="49">
-        <v>1</v>
-      </c>
-      <c r="E3" s="49">
-        <v>1</v>
-      </c>
-      <c r="F3" s="49">
-        <v>0</v>
-      </c>
-      <c r="G3" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49">
-        <v>8</v>
-      </c>
-      <c r="C4" s="49">
-        <v>3</v>
-      </c>
-      <c r="D4" s="49">
-        <v>1</v>
-      </c>
-      <c r="E4" s="49">
-        <v>1</v>
-      </c>
-      <c r="F4" s="49">
-        <v>0</v>
-      </c>
-      <c r="G4" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49">
-        <v>14</v>
-      </c>
-      <c r="C5" s="49">
-        <v>3</v>
-      </c>
-      <c r="D5" s="49">
-        <v>2</v>
-      </c>
-      <c r="E5" s="49">
-        <v>2</v>
-      </c>
-      <c r="F5" s="49">
-        <v>1</v>
-      </c>
-      <c r="G5" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
-        <v>4</v>
-      </c>
-      <c r="B6" s="49">
-        <v>17</v>
-      </c>
-      <c r="C6" s="49">
-        <v>3</v>
-      </c>
-      <c r="D6" s="49">
-        <v>2</v>
-      </c>
-      <c r="E6" s="49">
-        <v>2</v>
-      </c>
-      <c r="F6" s="49">
-        <v>2</v>
-      </c>
-      <c r="G6" s="49">
-        <v>1</v>
-      </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
-        <v>5</v>
-      </c>
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="49">
-        <v>17</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49">
-        <v>1</v>
-      </c>
-      <c r="F7" s="49">
-        <v>1</v>
-      </c>
-      <c r="G7" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
-        <v>6</v>
-      </c>
-      <c r="B8" s="49">
-        <v>4</v>
-      </c>
-      <c r="C8" s="49">
-        <v>17</v>
-      </c>
-      <c r="D8" s="49">
-        <v>1</v>
-      </c>
-      <c r="E8" s="49">
-        <v>1</v>
-      </c>
-      <c r="F8" s="49">
-        <v>1</v>
-      </c>
-      <c r="G8" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
-        <v>7</v>
-      </c>
-      <c r="B9" s="49">
-        <v>4</v>
-      </c>
-      <c r="C9" s="49">
-        <v>27</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <v>1</v>
-      </c>
-      <c r="F9" s="49">
-        <v>1</v>
-      </c>
-      <c r="G9" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
-        <v>8</v>
-      </c>
-      <c r="B10" s="49">
-        <v>7</v>
-      </c>
-      <c r="C10" s="49">
-        <v>17</v>
-      </c>
-      <c r="D10" s="49">
-        <v>1</v>
-      </c>
-      <c r="E10" s="49">
-        <v>1</v>
-      </c>
-      <c r="F10" s="49">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="49">
-        <v>9</v>
-      </c>
-      <c r="B11" s="49">
-        <v>9</v>
-      </c>
-      <c r="C11" s="49">
-        <v>18</v>
-      </c>
-      <c r="D11" s="49">
-        <v>1</v>
-      </c>
-      <c r="E11" s="49">
-        <v>1</v>
-      </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
-        <v>10</v>
-      </c>
-      <c r="B12" s="49">
-        <v>9</v>
-      </c>
-      <c r="C12" s="49">
-        <v>27</v>
-      </c>
-      <c r="D12" s="49">
-        <v>1</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
-        <v>11</v>
-      </c>
-      <c r="B13" s="49">
-        <v>6</v>
-      </c>
-      <c r="C13" s="49">
-        <v>40</v>
-      </c>
-      <c r="D13" s="49">
-        <v>2</v>
-      </c>
-      <c r="E13" s="49">
-        <v>3</v>
-      </c>
-      <c r="F13" s="49">
-        <v>2</v>
-      </c>
-      <c r="G13" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
-        <v>12</v>
-      </c>
-      <c r="B14" s="49">
-        <v>12</v>
-      </c>
-      <c r="C14" s="49">
-        <v>40</v>
-      </c>
-      <c r="D14" s="49">
-        <v>2</v>
-      </c>
-      <c r="E14" s="49">
-        <v>3</v>
-      </c>
-      <c r="F14" s="49">
-        <v>2</v>
-      </c>
-      <c r="G14" s="49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
-        <v>13</v>
-      </c>
-      <c r="B15" s="49">
-        <v>14</v>
-      </c>
-      <c r="C15" s="49">
-        <v>15</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="E15" s="49">
-        <v>1</v>
-      </c>
-      <c r="F15" s="49">
-        <v>1</v>
-      </c>
-      <c r="G15" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>14</v>
-      </c>
-      <c r="B16" s="49">
-        <v>12</v>
-      </c>
-      <c r="C16" s="49">
-        <v>21</v>
-      </c>
-      <c r="D16" s="49">
-        <v>1</v>
-      </c>
-      <c r="E16" s="49">
-        <v>1</v>
-      </c>
-      <c r="F16" s="49">
-        <v>1</v>
-      </c>
-      <c r="G16" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>31</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8008,324 +7726,324 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="13" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="49" customWidth="1"/>
-    <col min="6" max="8" width="10" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="49"/>
+    <col min="1" max="1" width="12.85546875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="13" style="41" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="41" customWidth="1"/>
+    <col min="6" max="8" width="10" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="A1" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="B3" s="66">
+        <v>0</v>
+      </c>
+      <c r="C3" s="66">
+        <v>0</v>
+      </c>
+      <c r="D3" s="66">
+        <v>22</v>
+      </c>
+      <c r="E3" s="66">
+        <v>0</v>
+      </c>
+      <c r="F3" s="66">
+        <v>44</v>
+      </c>
+      <c r="G3" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="66">
+        <v>0</v>
+      </c>
+      <c r="C4" s="66">
+        <v>0</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0</v>
+      </c>
+      <c r="E4" s="66">
+        <v>0</v>
+      </c>
+      <c r="F4" s="66">
+        <v>0</v>
+      </c>
+      <c r="G4" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="B5" s="41">
+        <v>7</v>
+      </c>
+      <c r="C5" s="41">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41">
+        <v>2</v>
+      </c>
+      <c r="E5" s="41">
+        <v>3</v>
+      </c>
+      <c r="F5" s="41">
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="B6" s="41">
+        <v>16</v>
+      </c>
+      <c r="C6" s="41">
+        <v>2</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>3</v>
+      </c>
+      <c r="F6" s="41">
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="B7" s="41">
+        <v>2</v>
+      </c>
+      <c r="C7" s="41">
+        <v>23</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41">
+        <v>11</v>
+      </c>
+      <c r="G7" s="41">
         <v>12</v>
       </c>
-      <c r="B3" s="74">
-        <v>0</v>
-      </c>
-      <c r="C3" s="74">
-        <v>0</v>
-      </c>
-      <c r="D3" s="74">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="41">
+        <v>8</v>
+      </c>
+      <c r="C8" s="41">
+        <v>23</v>
+      </c>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41">
+        <v>11</v>
+      </c>
+      <c r="G8" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="41">
+        <v>13</v>
+      </c>
+      <c r="C9" s="41">
+        <v>23</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+      <c r="F9" s="41">
+        <v>11</v>
+      </c>
+      <c r="G9" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="41">
+        <v>17</v>
+      </c>
+      <c r="C10" s="41">
+        <v>13</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="41">
+        <v>17</v>
+      </c>
+      <c r="C11" s="41">
         <v>22</v>
       </c>
-      <c r="E3" s="74">
-        <v>0</v>
-      </c>
-      <c r="F3" s="74">
-        <v>44</v>
-      </c>
-      <c r="G3" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="74">
-        <v>0</v>
-      </c>
-      <c r="C4" s="74">
-        <v>0</v>
-      </c>
-      <c r="D4" s="74">
-        <v>0</v>
-      </c>
-      <c r="E4" s="74">
-        <v>0</v>
-      </c>
-      <c r="F4" s="74">
-        <v>0</v>
-      </c>
-      <c r="G4" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="49">
-        <v>7</v>
-      </c>
-      <c r="C5" s="49">
+      <c r="D11" s="41">
         <v>2</v>
       </c>
-      <c r="D5" s="49">
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="41">
+        <v>1</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="41">
+        <v>17</v>
+      </c>
+      <c r="C12" s="41">
+        <v>31</v>
+      </c>
+      <c r="D12" s="41">
         <v>2</v>
       </c>
-      <c r="E5" s="49">
-        <v>3</v>
-      </c>
-      <c r="F5" s="49">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="49">
-        <v>16</v>
-      </c>
-      <c r="C6" s="49">
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="41">
+        <v>6</v>
+      </c>
+      <c r="C13" s="41">
+        <v>42</v>
+      </c>
+      <c r="D13" s="41">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41">
         <v>2</v>
       </c>
-      <c r="D6" s="49">
+      <c r="F13" s="41">
+        <v>1</v>
+      </c>
+      <c r="G13" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="41">
+        <v>12</v>
+      </c>
+      <c r="C14" s="41">
+        <v>42</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1</v>
+      </c>
+      <c r="E14" s="41">
         <v>2</v>
       </c>
-      <c r="E6" s="49">
-        <v>3</v>
-      </c>
-      <c r="F6" s="49">
-        <v>0</v>
-      </c>
-      <c r="G6" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="49">
-        <v>2</v>
-      </c>
-      <c r="C7" s="49">
-        <v>23</v>
-      </c>
-      <c r="D7" s="49">
-        <v>1</v>
-      </c>
-      <c r="E7" s="49">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>11</v>
-      </c>
-      <c r="G7" s="49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="49">
-        <v>8</v>
-      </c>
-      <c r="C8" s="49">
-        <v>23</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
-        <v>11</v>
-      </c>
-      <c r="G8" s="49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="49">
-        <v>13</v>
-      </c>
-      <c r="C9" s="49">
-        <v>23</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
-        <v>11</v>
-      </c>
-      <c r="G9" s="49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="49">
-        <v>17</v>
-      </c>
-      <c r="C10" s="49">
-        <v>13</v>
-      </c>
-      <c r="D10" s="49">
-        <v>2</v>
-      </c>
-      <c r="E10" s="49">
-        <v>1</v>
-      </c>
-      <c r="F10" s="49">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="49">
-        <v>17</v>
-      </c>
-      <c r="C11" s="49">
-        <v>22</v>
-      </c>
-      <c r="D11" s="49">
-        <v>2</v>
-      </c>
-      <c r="E11" s="49">
-        <v>1</v>
-      </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="49">
-        <v>17</v>
-      </c>
-      <c r="C12" s="49">
-        <v>31</v>
-      </c>
-      <c r="D12" s="49">
-        <v>2</v>
-      </c>
-      <c r="E12" s="49">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
-        <v>1</v>
-      </c>
-      <c r="G12" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="49">
-        <v>6</v>
-      </c>
-      <c r="C13" s="49">
-        <v>42</v>
-      </c>
-      <c r="D13" s="49">
-        <v>1</v>
-      </c>
-      <c r="E13" s="49">
-        <v>2</v>
-      </c>
-      <c r="F13" s="49">
-        <v>1</v>
-      </c>
-      <c r="G13" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="49">
-        <v>12</v>
-      </c>
-      <c r="C14" s="49">
-        <v>42</v>
-      </c>
-      <c r="D14" s="49">
-        <v>1</v>
-      </c>
-      <c r="E14" s="49">
-        <v>2</v>
-      </c>
-      <c r="F14" s="49">
-        <v>1</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="F14" s="41">
+        <v>1</v>
+      </c>
+      <c r="G14" s="41">
         <v>1</v>
       </c>
     </row>
@@ -8342,7 +8060,7 @@
   <dimension ref="A1:BC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AL33" sqref="AL33"/>
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8356,14 +8074,14 @@
       <c r="Q1" s="10"/>
       <c r="R1" s="11"/>
       <c r="S1" s="12"/>
-      <c r="AS1" s="68">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="78" t="s">
-        <v>28</v>
+      <c r="AS1" s="60">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="74" t="s">
+        <v>21</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -8372,30 +8090,30 @@
         <v>5</v>
       </c>
       <c r="S2" s="15"/>
-      <c r="AS2" s="68">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="78"/>
-      <c r="AW2" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX2" s="70" t="s">
+      <c r="AS2" s="60">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="74"/>
+      <c r="AW2" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ2" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA2" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AY2" s="70" t="s">
+      <c r="BC2" s="62" t="s">
         <v>7</v>
-      </c>
-      <c r="AZ2" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="BA2" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="BC2" s="70" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.25">
@@ -8417,7 +8135,7 @@
       <c r="Q3" s="13">
         <v>0</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="30">
         <v>0</v>
       </c>
       <c r="S3" s="15">
@@ -8471,10 +8189,10 @@
       <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AS3" s="68">
+      <c r="AS3" s="60">
         <v>2</v>
       </c>
-      <c r="AT3" s="78"/>
+      <c r="AT3" s="74"/>
       <c r="AW3">
         <v>1</v>
       </c>
@@ -8516,7 +8234,7 @@
       <c r="Q4" s="17">
         <v>0</v>
       </c>
-      <c r="R4" s="40">
+      <c r="R4" s="32">
         <v>0</v>
       </c>
       <c r="S4" s="18">
@@ -8546,7 +8264,7 @@
       <c r="AA4" s="2">
         <v>0</v>
       </c>
-      <c r="AB4" s="41">
+      <c r="AB4" s="33">
         <v>0</v>
       </c>
       <c r="AC4" s="2">
@@ -8577,10 +8295,10 @@
       <c r="AO4" s="11"/>
       <c r="AP4" s="11"/>
       <c r="AQ4" s="12"/>
-      <c r="AS4" s="68">
+      <c r="AS4" s="60">
         <v>3</v>
       </c>
-      <c r="AT4" s="78"/>
+      <c r="AT4" s="74"/>
       <c r="AW4">
         <v>2</v>
       </c>
@@ -8612,7 +8330,7 @@
       </c>
       <c r="D5" s="12"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="39">
+      <c r="R5" s="31">
         <v>6</v>
       </c>
       <c r="S5" s="6"/>
@@ -8635,10 +8353,10 @@
       <c r="AR5">
         <v>0</v>
       </c>
-      <c r="AS5" s="68">
+      <c r="AS5" s="60">
         <v>4</v>
       </c>
-      <c r="AT5" s="78"/>
+      <c r="AT5" s="74"/>
       <c r="AW5">
         <v>3</v>
       </c>
@@ -8665,10 +8383,10 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="36">
-        <v>0</v>
-      </c>
-      <c r="D6" s="35">
+      <c r="C6" s="28">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
         <v>1</v>
       </c>
       <c r="Q6" s="7"/>
@@ -8688,10 +8406,10 @@
       <c r="AR6">
         <v>0</v>
       </c>
-      <c r="AS6" s="68">
+      <c r="AS6" s="60">
         <v>5</v>
       </c>
-      <c r="AT6" s="78"/>
+      <c r="AT6" s="74"/>
       <c r="AW6">
         <v>4</v>
       </c>
@@ -8718,7 +8436,7 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="29">
         <v>0</v>
       </c>
       <c r="D7" s="21"/>
@@ -8732,19 +8450,19 @@
       <c r="AO7" s="16">
         <v>11</v>
       </c>
-      <c r="AP7" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="28">
+      <c r="AP7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="26">
         <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
-      <c r="AS7" s="68">
+      <c r="AS7" s="60">
         <v>6</v>
       </c>
-      <c r="AT7" s="78"/>
+      <c r="AT7" s="74"/>
       <c r="AW7">
         <v>5</v>
       </c>
@@ -8771,7 +8489,7 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>0</v>
       </c>
       <c r="D8" s="12"/>
@@ -8794,10 +8512,10 @@
       <c r="AR8">
         <v>0</v>
       </c>
-      <c r="AS8" s="68">
+      <c r="AS8" s="60">
         <v>7</v>
       </c>
-      <c r="AT8" s="78"/>
+      <c r="AT8" s="74"/>
       <c r="AW8">
         <v>6</v>
       </c>
@@ -8824,10 +8542,10 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35">
+      <c r="C9" s="28">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
         <v>2</v>
       </c>
       <c r="L9">
@@ -8848,10 +8566,10 @@
       <c r="Q9" s="19">
         <v>0</v>
       </c>
-      <c r="R9" s="42">
-        <v>0</v>
-      </c>
-      <c r="S9" s="43">
+      <c r="R9" s="34">
+        <v>0</v>
+      </c>
+      <c r="S9" s="35">
         <v>0</v>
       </c>
       <c r="T9" s="12">
@@ -8878,7 +8596,7 @@
       <c r="AA9" s="2">
         <v>0</v>
       </c>
-      <c r="AB9" s="41">
+      <c r="AB9" s="33">
         <v>0</v>
       </c>
       <c r="AC9" s="2">
@@ -8909,10 +8627,10 @@
       <c r="AO9" s="20"/>
       <c r="AP9" s="20"/>
       <c r="AQ9" s="21"/>
-      <c r="AS9" s="68">
+      <c r="AS9" s="60">
         <v>8</v>
       </c>
-      <c r="AT9" s="78"/>
+      <c r="AT9" s="74"/>
       <c r="AW9">
         <v>7</v>
       </c>
@@ -8960,10 +8678,10 @@
       <c r="AO10" s="14"/>
       <c r="AP10" s="14"/>
       <c r="AQ10" s="15"/>
-      <c r="AS10" s="68">
+      <c r="AS10" s="60">
         <v>9</v>
       </c>
-      <c r="AT10" s="78"/>
+      <c r="AT10" s="74"/>
       <c r="AW10">
         <v>8</v>
       </c>
@@ -9007,10 +8725,10 @@
       <c r="AR11">
         <v>0</v>
       </c>
-      <c r="AS11" s="68">
+      <c r="AS11" s="60">
         <v>10</v>
       </c>
-      <c r="AT11" s="78"/>
+      <c r="AT11" s="74"/>
       <c r="AW11">
         <v>9</v>
       </c>
@@ -9051,10 +8769,10 @@
       <c r="AR12">
         <v>0</v>
       </c>
-      <c r="AS12" s="68">
+      <c r="AS12" s="60">
         <v>11</v>
       </c>
-      <c r="AT12" s="78"/>
+      <c r="AT12" s="74"/>
       <c r="AW12">
         <v>10</v>
       </c>
@@ -9093,19 +8811,19 @@
       <c r="AO13" s="16">
         <v>12</v>
       </c>
-      <c r="AP13" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="28">
+      <c r="AP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="26">
         <v>0</v>
       </c>
       <c r="AR13">
         <v>0</v>
       </c>
-      <c r="AS13" s="68">
+      <c r="AS13" s="60">
         <v>12</v>
       </c>
-      <c r="AT13" s="78"/>
+      <c r="AT13" s="74"/>
       <c r="AW13">
         <v>11</v>
       </c>
@@ -9149,7 +8867,7 @@
       <c r="O14" s="10">
         <v>0</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="36">
         <v>0</v>
       </c>
       <c r="Q14" s="12">
@@ -9167,10 +8885,10 @@
       <c r="U14" s="19">
         <v>0</v>
       </c>
-      <c r="V14" s="46">
-        <v>0</v>
-      </c>
-      <c r="W14" s="47">
+      <c r="V14" s="38">
+        <v>0</v>
+      </c>
+      <c r="W14" s="39">
         <v>0</v>
       </c>
       <c r="X14" s="1">
@@ -9197,7 +8915,7 @@
       <c r="AE14" s="10">
         <v>0</v>
       </c>
-      <c r="AF14" s="44">
+      <c r="AF14" s="36">
         <v>0</v>
       </c>
       <c r="AG14" s="12">
@@ -9223,10 +8941,10 @@
       <c r="AR14">
         <v>0</v>
       </c>
-      <c r="AS14" s="68">
+      <c r="AS14" s="60">
         <v>13</v>
       </c>
-      <c r="AT14" s="78"/>
+      <c r="AT14" s="74"/>
       <c r="AW14">
         <v>12</v>
       </c>
@@ -9253,7 +8971,7 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="28">
         <v>0</v>
       </c>
       <c r="D15" s="16">
@@ -9277,10 +8995,10 @@
       <c r="AO15" s="20"/>
       <c r="AP15" s="20"/>
       <c r="AQ15" s="21"/>
-      <c r="AS15" s="68">
+      <c r="AS15" s="60">
         <v>14</v>
       </c>
-      <c r="AT15" s="78"/>
+      <c r="AT15" s="74"/>
       <c r="AW15">
         <v>13</v>
       </c>
@@ -9328,10 +9046,10 @@
         <v>18</v>
       </c>
       <c r="AG16" s="12"/>
-      <c r="AS16" s="68">
+      <c r="AS16" s="60">
         <v>15</v>
       </c>
-      <c r="AT16" s="78"/>
+      <c r="AT16" s="74"/>
       <c r="AW16">
         <v>14</v>
       </c>
@@ -9358,7 +9076,7 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>0</v>
       </c>
       <c r="D17" s="20"/>
@@ -9367,7 +9085,7 @@
       <c r="M17" s="19">
         <v>0</v>
       </c>
-      <c r="N17" s="45">
+      <c r="N17" s="37">
         <v>0</v>
       </c>
       <c r="O17" s="21">
@@ -9376,7 +9094,7 @@
       <c r="V17" s="2">
         <v>0</v>
       </c>
-      <c r="W17" s="41">
+      <c r="W17" s="33">
         <v>0</v>
       </c>
       <c r="X17" s="2">
@@ -9385,16 +9103,16 @@
       <c r="AE17" s="19">
         <v>0</v>
       </c>
-      <c r="AF17" s="46">
+      <c r="AF17" s="38">
         <v>0</v>
       </c>
       <c r="AG17" s="21">
         <v>0</v>
       </c>
-      <c r="AS17" s="68">
+      <c r="AS17" s="60">
         <v>16</v>
       </c>
-      <c r="AT17" s="78"/>
+      <c r="AT17" s="74"/>
       <c r="AW17">
         <v>15</v>
       </c>
@@ -9421,7 +9139,7 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="28">
         <v>0</v>
       </c>
       <c r="D18" s="16">
@@ -9456,10 +9174,10 @@
       <c r="AG18">
         <v>0</v>
       </c>
-      <c r="AS18" s="68">
+      <c r="AS18" s="60">
         <v>17</v>
       </c>
-      <c r="AT18" s="78"/>
+      <c r="AT18" s="74"/>
       <c r="AW18">
         <v>16</v>
       </c>
@@ -9519,10 +9237,10 @@
       <c r="AG19">
         <v>0</v>
       </c>
-      <c r="AS19" s="68">
+      <c r="AS19" s="60">
         <v>18</v>
       </c>
-      <c r="AT19" s="78"/>
+      <c r="AT19" s="74"/>
       <c r="AW19">
         <v>17</v>
       </c>
@@ -9577,10 +9295,10 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AS20" s="68">
+      <c r="AS20" s="60">
         <v>19</v>
       </c>
-      <c r="AT20" s="78"/>
+      <c r="AT20" s="74"/>
       <c r="AW20">
         <v>18</v>
       </c>
@@ -9604,205 +9322,205 @@
       </c>
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A21" s="68">
-        <v>0</v>
-      </c>
-      <c r="B21" s="68">
-        <v>1</v>
-      </c>
-      <c r="C21" s="68">
+      <c r="A21" s="60">
+        <v>0</v>
+      </c>
+      <c r="B21" s="60">
+        <v>1</v>
+      </c>
+      <c r="C21" s="60">
         <v>2</v>
       </c>
-      <c r="D21" s="68">
+      <c r="D21" s="60">
         <v>3</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="60">
         <v>4</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="60">
         <v>5</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="60">
         <v>6</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="60">
         <v>7</v>
       </c>
-      <c r="I21" s="68">
+      <c r="I21" s="60">
         <v>8</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="60">
         <v>9</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="60">
         <v>10</v>
       </c>
-      <c r="L21" s="68">
+      <c r="L21" s="60">
         <v>11</v>
       </c>
-      <c r="M21" s="68">
+      <c r="M21" s="60">
         <v>12</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="60">
         <v>13</v>
       </c>
-      <c r="O21" s="68">
+      <c r="O21" s="60">
         <v>14</v>
       </c>
-      <c r="P21" s="68">
+      <c r="P21" s="60">
         <v>15</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q21" s="60">
         <v>16</v>
       </c>
-      <c r="R21" s="68">
+      <c r="R21" s="60">
         <v>17</v>
       </c>
-      <c r="S21" s="68">
+      <c r="S21" s="60">
         <v>18</v>
       </c>
-      <c r="T21" s="68">
+      <c r="T21" s="60">
         <v>19</v>
       </c>
-      <c r="U21" s="68">
+      <c r="U21" s="60">
         <v>20</v>
       </c>
-      <c r="V21" s="68">
+      <c r="V21" s="60">
         <v>21</v>
       </c>
-      <c r="W21" s="68">
+      <c r="W21" s="60">
         <v>22</v>
       </c>
-      <c r="X21" s="68">
+      <c r="X21" s="60">
         <v>23</v>
       </c>
-      <c r="Y21" s="68">
+      <c r="Y21" s="60">
         <v>24</v>
       </c>
-      <c r="Z21" s="68">
+      <c r="Z21" s="60">
         <v>25</v>
       </c>
-      <c r="AA21" s="68">
+      <c r="AA21" s="60">
         <v>26</v>
       </c>
-      <c r="AB21" s="68">
+      <c r="AB21" s="60">
         <v>27</v>
       </c>
-      <c r="AC21" s="68">
+      <c r="AC21" s="60">
         <v>28</v>
       </c>
-      <c r="AD21" s="68">
+      <c r="AD21" s="60">
         <v>29</v>
       </c>
-      <c r="AE21" s="68">
+      <c r="AE21" s="60">
         <v>30</v>
       </c>
-      <c r="AF21" s="68">
+      <c r="AF21" s="60">
         <v>31</v>
       </c>
-      <c r="AG21" s="68">
+      <c r="AG21" s="60">
         <v>32</v>
       </c>
-      <c r="AH21" s="68">
+      <c r="AH21" s="60">
         <v>33</v>
       </c>
-      <c r="AI21" s="68">
+      <c r="AI21" s="60">
         <v>34</v>
       </c>
-      <c r="AJ21" s="68">
+      <c r="AJ21" s="60">
         <v>35</v>
       </c>
-      <c r="AK21" s="68">
+      <c r="AK21" s="60">
         <v>36</v>
       </c>
-      <c r="AL21" s="68">
+      <c r="AL21" s="60">
         <v>37</v>
       </c>
-      <c r="AM21" s="68">
+      <c r="AM21" s="60">
         <v>38</v>
       </c>
-      <c r="AN21" s="68">
+      <c r="AN21" s="60">
         <v>39</v>
       </c>
-      <c r="AO21" s="68">
+      <c r="AO21" s="60">
         <v>40</v>
       </c>
-      <c r="AP21" s="68">
+      <c r="AP21" s="60">
         <v>41</v>
       </c>
-      <c r="AQ21" s="68">
+      <c r="AQ21" s="60">
         <v>42</v>
       </c>
-      <c r="AR21" s="68">
+      <c r="AR21" s="60">
         <v>43</v>
       </c>
-      <c r="AS21" s="68"/>
+      <c r="AS21" s="60"/>
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
+      <c r="A22" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="73"/>
+      <c r="AN22" s="73"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="73"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="61"/>
       <c r="AW23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
+      <c r="AS24" s="61"/>
+      <c r="AT24" s="61"/>
+      <c r="AU24" s="61"/>
       <c r="AW24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX24">
         <v>7</v>
@@ -9825,7 +9543,7 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX25">
         <v>16</v>
@@ -9848,7 +9566,7 @@
     </row>
     <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AX26">
         <v>2</v>
@@ -9871,7 +9589,7 @@
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AX27">
         <v>8</v>
@@ -9894,7 +9612,7 @@
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW28" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AX28">
         <v>13</v>
@@ -9917,7 +9635,7 @@
     </row>
     <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AX29">
         <v>17</v>
@@ -9940,7 +9658,7 @@
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AX30">
         <v>17</v>
@@ -9963,7 +9681,7 @@
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AX31">
         <v>17</v>
@@ -9986,7 +9704,7 @@
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW32" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AX32">
         <v>6</v>
@@ -10009,7 +9727,7 @@
     </row>
     <row r="33" spans="49:55" x14ac:dyDescent="0.25">
       <c r="AW33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AX33">
         <v>12</v>
@@ -10044,2711 +9762,586 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="30"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>31</v>
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="34">
-        <f ca="1">RANDBETWEEN(60,300)</f>
-        <v>190</v>
-      </c>
-      <c r="E2" s="30">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
-      </c>
-      <c r="F2" t="str">
-        <f ca="1">IF(ISBLANK(N2),"",N2&amp;";"&amp;O2&amp;";"&amp;P2)</f>
-        <v>8;6;3</v>
-      </c>
-      <c r="G2" t="str">
-        <f ca="1">IF(ISBLANK(Q2),"",Q2&amp;";"&amp;R2)</f>
-        <v>5;28</v>
-      </c>
-      <c r="H2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!B"&amp;S2+1))</f>
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!C"&amp;S2+1))</f>
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!D"&amp;S2+1))</f>
-        <v>2</v>
-      </c>
-      <c r="K2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!E"&amp;S2+1))</f>
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!F"&amp;S2+1))</f>
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <f ca="1">IF(ISBLANK(S2),"",INDIRECT("Zones!G"&amp;S2+1))</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="24">
-        <f t="shared" ref="N2:P17" ca="1" si="0">RANDBETWEEN(0,10)</f>
-        <v>8</v>
-      </c>
-      <c r="O2" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P2" s="24">
-        <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>3</v>
-      </c>
-      <c r="Q2" s="24">
-        <f ca="1">RANDBETWEEN(1,36)</f>
-        <v>5</v>
-      </c>
-      <c r="R2" s="24">
-        <f ca="1">RANDBETWEEN(1,36)</f>
-        <v>28</v>
-      </c>
-      <c r="S2" s="24">
-        <f ca="1">RANDBETWEEN(1,18)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>32</v>
+        <v>210</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="33">
-        <f t="shared" ref="D3:D36" ca="1" si="1">RANDBETWEEN(60,300)</f>
-        <v>175</v>
-      </c>
-      <c r="E3" s="30">
-        <f t="shared" ref="E3:E36" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F36" ca="1" si="3">IF(ISBLANK(N3),"",N3&amp;";"&amp;O3&amp;";"&amp;P3)</f>
-        <v>10;9;4</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G36" ca="1" si="4">IF(ISBLANK(Q3),"",Q3&amp;";"&amp;R3)</f>
-        <v>2;33</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H36" ca="1" si="5">IF(ISBLANK(S3),"",INDIRECT("Zones!B"&amp;S3+1))</f>
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I36" ca="1" si="6">IF(ISBLANK(S3),"",INDIRECT("Zones!C"&amp;S3+1))</f>
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J36" ca="1" si="7">IF(ISBLANK(S3),"",INDIRECT("Zones!D"&amp;S3+1))</f>
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K36" ca="1" si="8">IF(ISBLANK(S3),"",INDIRECT("Zones!E"&amp;S3+1))</f>
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L36" ca="1" si="9">IF(ISBLANK(S3),"",INDIRECT("Zones!F"&amp;S3+1))</f>
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M36" ca="1" si="10">IF(ISBLANK(S3),"",INDIRECT("Zones!G"&amp;S3+1))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O3" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P3" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q3" s="24">
-        <f t="shared" ref="Q3:R36" ca="1" si="11">RANDBETWEEN(1,36)</f>
-        <v>2</v>
-      </c>
-      <c r="R3" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>33</v>
-      </c>
-      <c r="S3" s="24">
-        <f t="shared" ref="S3:S36" ca="1" si="12">RANDBETWEEN(1,18)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>33</v>
+        <v>211</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="E4" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3;1;3</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>22;33</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N4" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O4" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q4" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="R4" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>33</v>
-      </c>
-      <c r="S4" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>34</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>236</v>
-      </c>
-      <c r="E5" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3;9;9</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>21;1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N5" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O5" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P5" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q5" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="R5" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>35</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="E6" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3;10;4</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>17;15</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P6" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q6" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="R6" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="S6" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>36</v>
-      </c>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
-      </c>
-      <c r="E7" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>5;2;7</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>2;8</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O7" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P7" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="R7" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="S7" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>37</v>
-      </c>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="E8" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>1;0;4</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>35;35</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q8" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="R8" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="S8" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>38</v>
-      </c>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>1;10;7</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>11;21</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P9" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="Q9" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="R9" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="S9" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="E10" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>5;7;8</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>5;8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="P10" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q10" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="R10" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="S10" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>121</v>
-      </c>
-      <c r="E11" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>5;8;8</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>14;24</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O11" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="Q11" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>14</v>
-      </c>
-      <c r="R11" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="S11" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E12" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>4;5;2</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>22;19</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="R12" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="S12" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>221</v>
-      </c>
-      <c r="E13" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>6;6;9</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>7;27</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Zone(x)</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Zone(y)</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>x+</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>x-</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>y+</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>y-</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="O13" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="P13" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="Q13" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="R13" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="S13" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="E14" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>1;10;3</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>1;15</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I14">
-        <f t="shared" ca="1" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P14" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q14" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="S14" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="E15" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>7;9;10</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>29;32</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O15" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P15" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="Q15" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="R15" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="S15" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>286</v>
-      </c>
-      <c r="E16" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>9;1;0</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>25;7</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O16" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P16" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="R16" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S16" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="E17" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>8;2;2</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>8;4</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="O17" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P17" s="24">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q17" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="R17" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="S17" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>285</v>
-      </c>
-      <c r="E18" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>0;9;10</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>25;32</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I18">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="24">
-        <f t="shared" ref="N18:P33" ca="1" si="13">RANDBETWEEN(0,10)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="P18" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Q18" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="R18" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="E19" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>7;0;6</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>10;24</v>
-      </c>
-      <c r="H19">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I19">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O19" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="Q19" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="R19" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>239</v>
-      </c>
-      <c r="E20" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10;4;2</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>34;18</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="O20" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P20" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Q20" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>34</v>
-      </c>
-      <c r="R20" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="S20" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="E21" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>9;3;5</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>10;36</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="O21" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="P21" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="Q21" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="R21" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="S21" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="E22" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2;7;10</v>
-      </c>
-      <c r="G22" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>20;1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="I22">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="O22" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P22" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Q22" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R22" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="E23" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2;8;0</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>11;10</v>
-      </c>
-      <c r="H23">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ca="1" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="N23" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="O23" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P23" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>11</v>
-      </c>
-      <c r="R23" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="S23" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="E24" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>5;7;5</v>
-      </c>
-      <c r="G24" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>21;36</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N24" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="O24" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="P24" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="Q24" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>21</v>
-      </c>
-      <c r="R24" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="S24" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="E25" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>2;8;8</v>
-      </c>
-      <c r="G25" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>9;8</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="O25" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P25" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="Q25" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="R25" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="S25" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>258</v>
-      </c>
-      <c r="E26" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>8;0;10</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>10;25</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="O26" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="Q26" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="R26" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="S26" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="E27" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>10;4;9</v>
-      </c>
-      <c r="G27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>22;10</v>
-      </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I27">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="O27" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P27" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="Q27" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>22</v>
-      </c>
-      <c r="R27" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="S27" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>149</v>
-      </c>
-      <c r="E28" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3;1;4</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>35;19</v>
-      </c>
-      <c r="H28">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="I28">
-        <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="O28" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="P28" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q28" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="R28" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>19</v>
-      </c>
-      <c r="S28" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>289</v>
-      </c>
-      <c r="E29" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>4;5;4</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>8;26</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="O29" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P29" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q29" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="R29" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="S29" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>191</v>
-      </c>
-      <c r="E30" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>4;4;3</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>23;35</v>
-      </c>
-      <c r="H30">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="I30">
-        <f t="shared" ca="1" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N30" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="O30" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="P30" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="Q30" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>23</v>
-      </c>
-      <c r="R30" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="S30" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="E31" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>7;10;8</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>25;26</v>
-      </c>
-      <c r="H31">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I31">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
-      </c>
-      <c r="O31" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="P31" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="Q31" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>25</v>
-      </c>
-      <c r="R31" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>26</v>
-      </c>
-      <c r="S31" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="E32" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>3;8;4</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>20;15</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Zone(x)</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>Zone(y)</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>x+</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>x-</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>y+</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" ca="1" si="10"/>
-        <v>y-</v>
-      </c>
-      <c r="N32" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="O32" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="P32" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="Q32" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="R32" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>15</v>
-      </c>
-      <c r="S32" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="E33" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>4;5;2</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>27;33</v>
-      </c>
-      <c r="H33">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="O33" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="P33" s="24">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="Q33" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="R33" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>33</v>
-      </c>
-      <c r="S33" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>247</v>
-      </c>
-      <c r="E34" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>6;7;1</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>27;17</v>
-      </c>
-      <c r="H34">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="I34">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K34">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="M34">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N34" s="24">
-        <f t="shared" ref="N34:P36" ca="1" si="14">RANDBETWEEN(0,10)</f>
-        <v>6</v>
-      </c>
-      <c r="O34" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="P34" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q34" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>27</v>
-      </c>
-      <c r="R34" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>17</v>
-      </c>
-      <c r="S34" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>279</v>
-      </c>
-      <c r="E35" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>5;10;1</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>28;7</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ca="1" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="O35" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="P35" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="R35" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="S35" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D36" s="33">
-        <f t="shared" ca="1" si="1"/>
-        <v>222</v>
-      </c>
-      <c r="E36" s="30">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>8;8;1</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>28;2</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="I36">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N36" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="O36" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="P36" s="24">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="R36" s="24">
-        <f t="shared" ca="1" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="S36" s="24">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="11.42578125" style="41"/>
+    <col min="8" max="8" width="11.42578125" style="43"/>
+    <col min="9" max="16384" width="11.42578125" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41">
+        <v>5</v>
+      </c>
+      <c r="C3" s="41">
+        <v>3</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1</v>
+      </c>
+      <c r="F3" s="41">
+        <v>0</v>
+      </c>
+      <c r="G3" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="41">
+        <v>8</v>
+      </c>
+      <c r="C4" s="41">
+        <v>3</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+      <c r="E4" s="41">
+        <v>1</v>
+      </c>
+      <c r="F4" s="41">
+        <v>0</v>
+      </c>
+      <c r="G4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="41">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41">
+        <v>14</v>
+      </c>
+      <c r="C5" s="41">
+        <v>3</v>
+      </c>
+      <c r="D5" s="41">
+        <v>2</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="41">
+        <v>1</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41">
+        <v>17</v>
+      </c>
+      <c r="C6" s="41">
+        <v>3</v>
+      </c>
+      <c r="D6" s="41">
+        <v>2</v>
+      </c>
+      <c r="E6" s="41">
+        <v>2</v>
+      </c>
+      <c r="F6" s="41">
+        <v>2</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="41">
+        <v>5</v>
+      </c>
+      <c r="B7" s="41">
+        <v>1</v>
+      </c>
+      <c r="C7" s="41">
+        <v>17</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" s="41">
+        <v>1</v>
+      </c>
+      <c r="F7" s="41">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="41">
+        <v>4</v>
+      </c>
+      <c r="C8" s="41">
+        <v>17</v>
+      </c>
+      <c r="D8" s="41">
+        <v>1</v>
+      </c>
+      <c r="E8" s="41">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41">
+        <v>1</v>
+      </c>
+      <c r="G8" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="41">
+        <v>7</v>
+      </c>
+      <c r="B9" s="41">
+        <v>4</v>
+      </c>
+      <c r="C9" s="41">
+        <v>27</v>
+      </c>
+      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="41">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41">
+        <v>1</v>
+      </c>
+      <c r="G9" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="41">
+        <v>8</v>
+      </c>
+      <c r="B10" s="41">
+        <v>7</v>
+      </c>
+      <c r="C10" s="41">
+        <v>17</v>
+      </c>
+      <c r="D10" s="41">
+        <v>1</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41">
+        <v>1</v>
+      </c>
+      <c r="G10" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="41">
+        <v>9</v>
+      </c>
+      <c r="B11" s="41">
+        <v>9</v>
+      </c>
+      <c r="C11" s="41">
+        <v>18</v>
+      </c>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="41">
+        <v>1</v>
+      </c>
+      <c r="F11" s="41">
+        <v>1</v>
+      </c>
+      <c r="G11" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="41">
+        <v>9</v>
+      </c>
+      <c r="C12" s="41">
+        <v>27</v>
+      </c>
+      <c r="D12" s="41">
+        <v>1</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="41">
+        <v>11</v>
+      </c>
+      <c r="B13" s="41">
+        <v>6</v>
+      </c>
+      <c r="C13" s="41">
+        <v>40</v>
+      </c>
+      <c r="D13" s="41">
+        <v>2</v>
+      </c>
+      <c r="E13" s="41">
+        <v>3</v>
+      </c>
+      <c r="F13" s="41">
+        <v>2</v>
+      </c>
+      <c r="G13" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="41">
+        <v>12</v>
+      </c>
+      <c r="C14" s="41">
+        <v>40</v>
+      </c>
+      <c r="D14" s="41">
+        <v>2</v>
+      </c>
+      <c r="E14" s="41">
+        <v>3</v>
+      </c>
+      <c r="F14" s="41">
+        <v>2</v>
+      </c>
+      <c r="G14" s="41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>13</v>
+      </c>
+      <c r="B15" s="41">
+        <v>14</v>
+      </c>
+      <c r="C15" s="41">
+        <v>15</v>
+      </c>
+      <c r="D15" s="41">
+        <v>0</v>
+      </c>
+      <c r="E15" s="41">
+        <v>1</v>
+      </c>
+      <c r="F15" s="41">
+        <v>1</v>
+      </c>
+      <c r="G15" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>14</v>
+      </c>
+      <c r="B16" s="41">
+        <v>12</v>
+      </c>
+      <c r="C16" s="41">
+        <v>21</v>
+      </c>
+      <c r="D16" s="41">
+        <v>1</v>
+      </c>
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="41">
+        <v>1</v>
+      </c>
+      <c r="G16" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="41">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="41">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/InputData_Scheduler.xlsx
+++ b/data/InputData_Scheduler.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Resources" sheetId="9" r:id="rId4"/>
     <sheet name="Layout" sheetId="10" r:id="rId5"/>
     <sheet name="ShopFloor_View" sheetId="3" r:id="rId6"/>
-    <sheet name="Options" sheetId="12" r:id="rId7"/>
+    <sheet name="Options" sheetId="12" state="hidden" r:id="rId7"/>
     <sheet name="Zones" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,6 +26,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Auteur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This colomn is not considered as an input. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Auteur</author>
@@ -77,6 +111,20 @@
           </rPr>
           <t xml:space="preserve">
 Element 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zone id =1
+reference point= y:3, x:5</t>
         </r>
       </text>
     </comment>
@@ -300,35 +348,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Can be An obstacle or a large scale product. </t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Auteur</author>
@@ -363,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <t>Ref</t>
   </si>
@@ -953,9 +977,6 @@
   </si>
   <si>
     <t>Zone Specification</t>
-  </si>
-  <si>
-    <t>Zones</t>
   </si>
   <si>
     <r>
@@ -1081,9 +1102,6 @@
     <t>DFS_ft_EA_Method</t>
   </si>
   <si>
-    <t>TreeNodeSearch_Method</t>
-  </si>
-  <si>
     <t>3;5</t>
   </si>
   <si>
@@ -1097,7 +1115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1201,8 +1219,21 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,12 +1279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1505,7 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1592,7 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1600,7 +1624,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1687,7 +1711,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1832,7 +1855,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1978,7 +2000,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2241,7 +2262,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2359,7 +2379,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4660,8 +4679,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4670,8 +4689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="5295900"/>
-          <a:ext cx="4191000" cy="1190625"/>
+          <a:off x="209550" y="4343400"/>
+          <a:ext cx="4191000" cy="1781175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4706,24 +4725,166 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>Conditions</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0"/>
+            <a:t>-</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>:</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t> This is a visual aid to visualise the map of the usecase example. </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>-</a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- Users may use a similar approach to define and visualise zones. NOTE: This tab is not considered as an input. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1" baseline="0"/>
+            <a:t>Code:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- 0 --&gt;:  cell occupied by an obstacle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> Worker dimensions must have a defined center ( ie. only odd numbers for dimensions) </a:t>
+            <a:rPr lang="fr-FR" sz="1100" b="1" baseline="0"/>
+            <a:t>0 </a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>--&gt;  reference coordinate of the obstacle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- yellow squares ( or red) --&gt;   zone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>--&gt;  id of the zone at the reference coordinate</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="457201"/>
+          <a:ext cx="4191000" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>NOTE: This tab is not considered as an input. </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>-This tab was used to define zones and then assign them to tasks.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="0" baseline="0"/>
+            <a:t>- Only zone information in the " Tasks" tab is considered as input.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" b="1" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4998,7 +5159,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,63 +5169,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
         <v>197</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>199</v>
-      </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
-        <v>207</v>
+      <c r="A3" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="B4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
-        <v>220</v>
-      </c>
-      <c r="B5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
-        <v>223</v>
       </c>
       <c r="B7">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
+      <c r="B12" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5098,7 +5259,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Options!$A$2:$A$4</xm:f>
+            <xm:f>Options!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
@@ -5109,11 +5270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,26 +5290,26 @@
     <col min="14" max="14" width="12.85546875" style="43" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="14.7109375" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="47" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:254" s="45" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
       <c r="N1" s="48"/>
       <c r="O1" s="44"/>
       <c r="P1" s="44"/>
@@ -7179,6 +7340,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7206,20 +7368,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>195</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,7 +7389,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="41">
         <v>100</v>
@@ -7241,7 +7403,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C4" s="41">
         <v>50</v>
@@ -7269,7 +7431,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="41">
         <v>40</v>
@@ -7354,14 +7516,14 @@
       <c r="B2" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>195</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7741,79 +7903,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="66">
-        <v>0</v>
-      </c>
-      <c r="C3" s="66">
-        <v>0</v>
-      </c>
-      <c r="D3" s="66">
+      <c r="B3" s="65">
+        <v>0</v>
+      </c>
+      <c r="C3" s="65">
+        <v>0</v>
+      </c>
+      <c r="D3" s="65">
         <v>22</v>
       </c>
-      <c r="E3" s="66">
-        <v>0</v>
-      </c>
-      <c r="F3" s="66">
+      <c r="E3" s="65">
+        <v>0</v>
+      </c>
+      <c r="F3" s="65">
         <v>44</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="65">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" s="66">
-        <v>0</v>
-      </c>
-      <c r="C4" s="66">
-        <v>0</v>
-      </c>
-      <c r="D4" s="66">
-        <v>0</v>
-      </c>
-      <c r="E4" s="66">
-        <v>0</v>
-      </c>
-      <c r="F4" s="66">
-        <v>0</v>
-      </c>
-      <c r="G4" s="66">
+      <c r="A4" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="65">
+        <v>0</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0</v>
+      </c>
+      <c r="E4" s="65">
+        <v>0</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0</v>
+      </c>
+      <c r="G4" s="65">
         <v>0</v>
       </c>
     </row>
@@ -8057,10 +8219,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC33"/>
+  <dimension ref="A1:AW33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB36" sqref="AB36"/>
+      <selection activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8069,7 +8231,7 @@
     <col min="49" max="49" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="11"/>
@@ -8077,14 +8239,11 @@
       <c r="AS1" s="60">
         <v>0</v>
       </c>
-      <c r="AT1" s="74" t="s">
+      <c r="AT1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Q2" s="13"/>
       <c r="R2" s="16">
         <v>5</v>
@@ -8093,30 +8252,10 @@
       <c r="AS2" s="60">
         <v>1</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AW2" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX2" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY2" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ2" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA2" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="BB2" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="BC2" s="62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT2" s="73"/>
+      <c r="AW2"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="L3">
         <v>0</v>
       </c>
@@ -8192,30 +8331,10 @@
       <c r="AS3" s="60">
         <v>2</v>
       </c>
-      <c r="AT3" s="74"/>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>5</v>
-      </c>
-      <c r="AY3">
-        <v>3</v>
-      </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT3" s="73"/>
+      <c r="AW3"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="L4">
         <v>0</v>
       </c>
@@ -8298,30 +8417,10 @@
       <c r="AS4" s="60">
         <v>3</v>
       </c>
-      <c r="AT4" s="74"/>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="AX4">
-        <v>8</v>
-      </c>
-      <c r="AY4">
-        <v>3</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT4" s="73"/>
+      <c r="AW4"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -8356,30 +8455,10 @@
       <c r="AS5" s="60">
         <v>4</v>
       </c>
-      <c r="AT5" s="74"/>
-      <c r="AW5">
-        <v>3</v>
-      </c>
-      <c r="AX5">
-        <v>14</v>
-      </c>
-      <c r="AY5">
-        <v>3</v>
-      </c>
-      <c r="AZ5">
-        <v>2</v>
-      </c>
-      <c r="BA5">
-        <v>2</v>
-      </c>
-      <c r="BB5">
-        <v>1</v>
-      </c>
-      <c r="BC5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT5" s="73"/>
+      <c r="AW5"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -8409,30 +8488,10 @@
       <c r="AS6" s="60">
         <v>5</v>
       </c>
-      <c r="AT6" s="74"/>
-      <c r="AW6">
-        <v>4</v>
-      </c>
-      <c r="AX6">
-        <v>17</v>
-      </c>
-      <c r="AY6">
-        <v>3</v>
-      </c>
-      <c r="AZ6">
-        <v>2</v>
-      </c>
-      <c r="BA6">
-        <v>2</v>
-      </c>
-      <c r="BB6">
-        <v>2</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT6" s="73"/>
+      <c r="AW6"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -8462,30 +8521,10 @@
       <c r="AS7" s="60">
         <v>6</v>
       </c>
-      <c r="AT7" s="74"/>
-      <c r="AW7">
-        <v>5</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>17</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT7" s="73"/>
+      <c r="AW7"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -8515,30 +8554,10 @@
       <c r="AS8" s="60">
         <v>7</v>
       </c>
-      <c r="AT8" s="74"/>
-      <c r="AW8">
-        <v>6</v>
-      </c>
-      <c r="AX8">
-        <v>4</v>
-      </c>
-      <c r="AY8">
-        <v>17</v>
-      </c>
-      <c r="AZ8">
-        <v>1</v>
-      </c>
-      <c r="BA8">
-        <v>1</v>
-      </c>
-      <c r="BB8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT8" s="73"/>
+      <c r="AW8"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -8630,30 +8649,10 @@
       <c r="AS9" s="60">
         <v>8</v>
       </c>
-      <c r="AT9" s="74"/>
-      <c r="AW9">
-        <v>7</v>
-      </c>
-      <c r="AX9">
-        <v>4</v>
-      </c>
-      <c r="AY9">
-        <v>27</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>1</v>
-      </c>
-      <c r="BB9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT9" s="73"/>
+      <c r="AW9"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -8681,30 +8680,10 @@
       <c r="AS10" s="60">
         <v>9</v>
       </c>
-      <c r="AT10" s="74"/>
-      <c r="AW10">
-        <v>8</v>
-      </c>
-      <c r="AX10">
-        <v>7</v>
-      </c>
-      <c r="AY10">
-        <v>17</v>
-      </c>
-      <c r="AZ10">
-        <v>1</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>1</v>
-      </c>
-      <c r="BC10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT10" s="73"/>
+      <c r="AW10"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="R11" s="19"/>
       <c r="S11" s="20"/>
       <c r="T11" s="21"/>
@@ -8728,30 +8707,10 @@
       <c r="AS11" s="60">
         <v>10</v>
       </c>
-      <c r="AT11" s="74"/>
-      <c r="AW11">
-        <v>9</v>
-      </c>
-      <c r="AX11">
-        <v>9</v>
-      </c>
-      <c r="AY11">
-        <v>18</v>
-      </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <v>1</v>
-      </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT11" s="73"/>
+      <c r="AW11"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="U12" s="10"/>
       <c r="V12" s="11"/>
       <c r="W12" s="12"/>
@@ -8772,30 +8731,10 @@
       <c r="AS12" s="60">
         <v>11</v>
       </c>
-      <c r="AT12" s="74"/>
-      <c r="AW12">
-        <v>10</v>
-      </c>
-      <c r="AX12">
-        <v>9</v>
-      </c>
-      <c r="AY12">
-        <v>27</v>
-      </c>
-      <c r="AZ12">
-        <v>1</v>
-      </c>
-      <c r="BA12">
-        <v>1</v>
-      </c>
-      <c r="BB12">
-        <v>1</v>
-      </c>
-      <c r="BC12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT12" s="73"/>
+      <c r="AW12"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
@@ -8823,30 +8762,10 @@
       <c r="AS13" s="60">
         <v>12</v>
       </c>
-      <c r="AT13" s="74"/>
-      <c r="AW13">
-        <v>11</v>
-      </c>
-      <c r="AX13">
-        <v>6</v>
-      </c>
-      <c r="AY13">
-        <v>40</v>
-      </c>
-      <c r="AZ13">
-        <v>2</v>
-      </c>
-      <c r="BA13">
-        <v>3</v>
-      </c>
-      <c r="BB13">
-        <v>2</v>
-      </c>
-      <c r="BC13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT13" s="73"/>
+      <c r="AW13"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -8944,30 +8863,10 @@
       <c r="AS14" s="60">
         <v>13</v>
       </c>
-      <c r="AT14" s="74"/>
-      <c r="AW14">
-        <v>12</v>
-      </c>
-      <c r="AX14">
-        <v>12</v>
-      </c>
-      <c r="AY14">
-        <v>40</v>
-      </c>
-      <c r="AZ14">
-        <v>2</v>
-      </c>
-      <c r="BA14">
-        <v>3</v>
-      </c>
-      <c r="BB14">
-        <v>2</v>
-      </c>
-      <c r="BC14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT14" s="73"/>
+      <c r="AW14"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -8998,30 +8897,10 @@
       <c r="AS15" s="60">
         <v>14</v>
       </c>
-      <c r="AT15" s="74"/>
-      <c r="AW15">
-        <v>13</v>
-      </c>
-      <c r="AX15">
-        <v>14</v>
-      </c>
-      <c r="AY15">
-        <v>15</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>1</v>
-      </c>
-      <c r="BB15">
-        <v>1</v>
-      </c>
-      <c r="BC15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT15" s="73"/>
+      <c r="AW15"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -9049,30 +8928,10 @@
       <c r="AS16" s="60">
         <v>15</v>
       </c>
-      <c r="AT16" s="74"/>
-      <c r="AW16">
-        <v>14</v>
-      </c>
-      <c r="AX16">
-        <v>12</v>
-      </c>
-      <c r="AY16">
-        <v>21</v>
-      </c>
-      <c r="AZ16">
-        <v>1</v>
-      </c>
-      <c r="BA16">
-        <v>1</v>
-      </c>
-      <c r="BB16">
-        <v>1</v>
-      </c>
-      <c r="BC16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT16" s="73"/>
+      <c r="AW16"/>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -9112,30 +8971,10 @@
       <c r="AS17" s="60">
         <v>16</v>
       </c>
-      <c r="AT17" s="74"/>
-      <c r="AW17">
-        <v>15</v>
-      </c>
-      <c r="AX17">
-        <v>14</v>
-      </c>
-      <c r="AY17">
-        <v>31</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>1</v>
-      </c>
-      <c r="BB17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT17" s="73"/>
+      <c r="AW17"/>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -9177,30 +9016,10 @@
       <c r="AS18" s="60">
         <v>17</v>
       </c>
-      <c r="AT18" s="74"/>
-      <c r="AW18">
-        <v>16</v>
-      </c>
-      <c r="AX18">
-        <v>15</v>
-      </c>
-      <c r="AY18">
-        <v>13</v>
-      </c>
-      <c r="AZ18">
-        <v>1</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>1</v>
-      </c>
-      <c r="BC18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT18" s="73"/>
+      <c r="AW18"/>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -9240,30 +9059,10 @@
       <c r="AS19" s="60">
         <v>18</v>
       </c>
-      <c r="AT19" s="74"/>
-      <c r="AW19">
-        <v>17</v>
-      </c>
-      <c r="AX19">
-        <v>15</v>
-      </c>
-      <c r="AY19">
-        <v>22</v>
-      </c>
-      <c r="AZ19">
-        <v>1</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>1</v>
-      </c>
-      <c r="BC19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT19" s="73"/>
+      <c r="AW19"/>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -9298,30 +9097,10 @@
       <c r="AS20" s="60">
         <v>19</v>
       </c>
-      <c r="AT20" s="74"/>
-      <c r="AW20">
-        <v>18</v>
-      </c>
-      <c r="AX20">
-        <v>15</v>
-      </c>
-      <c r="AY20">
-        <v>31</v>
-      </c>
-      <c r="AZ20">
-        <v>1</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>1</v>
-      </c>
-      <c r="BC20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="AT20" s="73"/>
+      <c r="AW20"/>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>0</v>
       </c>
@@ -9456,297 +9235,94 @@
       </c>
       <c r="AS21" s="60"/>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="73"/>
-      <c r="AG22" s="73"/>
-      <c r="AH22" s="73"/>
-      <c r="AI22" s="73"/>
-      <c r="AJ22" s="73"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="73"/>
-      <c r="AM22" s="73"/>
-      <c r="AN22" s="73"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="73"/>
-      <c r="AQ22" s="73"/>
-      <c r="AR22" s="73"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="72"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="72"/>
+      <c r="AF22" s="72"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="72"/>
+      <c r="AI22" s="72"/>
+      <c r="AJ22" s="72"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="72"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="72"/>
+      <c r="AQ22" s="72"/>
+      <c r="AR22" s="72"/>
       <c r="AS22" s="61"/>
       <c r="AT22" s="61"/>
       <c r="AU22" s="61"/>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AS23" s="61"/>
       <c r="AT23" s="61"/>
       <c r="AU23" s="61"/>
-      <c r="AW23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AS24" s="61"/>
       <c r="AT24" s="61"/>
       <c r="AU24" s="61"/>
-      <c r="AW24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX24">
-        <v>7</v>
-      </c>
-      <c r="AY24">
-        <v>2</v>
-      </c>
-      <c r="AZ24">
-        <v>2</v>
-      </c>
-      <c r="BA24">
-        <v>3</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
-      </c>
-      <c r="BC24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW25" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX25">
-        <v>16</v>
-      </c>
-      <c r="AY25">
-        <v>2</v>
-      </c>
-      <c r="AZ25">
-        <v>2</v>
-      </c>
-      <c r="BA25">
-        <v>3</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
-      </c>
-      <c r="BC25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX26">
-        <v>2</v>
-      </c>
-      <c r="AY26">
-        <v>23</v>
-      </c>
-      <c r="AZ26">
-        <v>1</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>11</v>
-      </c>
-      <c r="BC26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX27">
-        <v>8</v>
-      </c>
-      <c r="AY27">
-        <v>23</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>11</v>
-      </c>
-      <c r="BC27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW28" t="s">
-        <v>14</v>
-      </c>
-      <c r="AX28">
-        <v>13</v>
-      </c>
-      <c r="AY28">
-        <v>23</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>11</v>
-      </c>
-      <c r="BC28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX29">
-        <v>17</v>
-      </c>
-      <c r="AY29">
-        <v>13</v>
-      </c>
-      <c r="AZ29">
-        <v>2</v>
-      </c>
-      <c r="BA29">
-        <v>1</v>
-      </c>
-      <c r="BB29">
-        <v>1</v>
-      </c>
-      <c r="BC29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW30" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX30">
-        <v>17</v>
-      </c>
-      <c r="AY30">
-        <v>22</v>
-      </c>
-      <c r="AZ30">
-        <v>2</v>
-      </c>
-      <c r="BA30">
-        <v>1</v>
-      </c>
-      <c r="BB30">
-        <v>1</v>
-      </c>
-      <c r="BC30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX31">
-        <v>17</v>
-      </c>
-      <c r="AY31">
-        <v>31</v>
-      </c>
-      <c r="AZ31">
-        <v>2</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BB31">
-        <v>1</v>
-      </c>
-      <c r="BC31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="AW32" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX32">
-        <v>6</v>
-      </c>
-      <c r="AY32">
-        <v>42</v>
-      </c>
-      <c r="AZ32">
-        <v>1</v>
-      </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BB32">
-        <v>1</v>
-      </c>
-      <c r="BC32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="49:55" x14ac:dyDescent="0.25">
-      <c r="AW33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AX33">
-        <v>12</v>
-      </c>
-      <c r="AY33">
-        <v>42</v>
-      </c>
-      <c r="AZ33">
-        <v>1</v>
-      </c>
-      <c r="BA33">
-        <v>2</v>
-      </c>
-      <c r="BB33">
-        <v>1</v>
-      </c>
-      <c r="BC33">
-        <v>1</v>
-      </c>
+      <c r="AW24"/>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW25"/>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW26"/>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW27"/>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW28"/>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW29"/>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW30"/>
+    </row>
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW31"/>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AW32"/>
+    </row>
+    <row r="33" spans="49:49" x14ac:dyDescent="0.25">
+      <c r="AW33"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9765,7 +9341,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9778,96 +9354,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="E1" s="68" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +9454,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10342,6 +9915,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>